--- a/pg/三和/trunk/src/sanwa-main/FastAPI/app/templates/xlsx/Temp社内伝入庫リスト.xlsx
+++ b/pg/三和/trunk/src/sanwa-main/FastAPI/app/templates/xlsx/Temp社内伝入庫リスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Sanwa\trunk\src\sanwa-main\FastAPI\app\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT-250048\Desktop\YJY_三和商研受発注システム\trunk\src\sanwa-main\FastAPI\app\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -816,8 +816,9 @@
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="11" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="24" customWidth="1"/>
     <col min="9" max="9" width="46.75" style="24" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="11" customWidth="1"/>
     <col min="11" max="11" width="6.75" style="24" customWidth="1"/>
